--- a/The Complete Financial Analyst Course 2019/2. Microsoft Excel - Quick Introduction/2.1 02 6 Overview of Excel Exercise & Text.xlsx
+++ b/The Complete Financial Analyst Course 2019/2. Microsoft Excel - Quick Introduction/2.1 02 6 Overview of Excel Exercise & Text.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7893EB51-EA9A-4071-ABD9-57B10715CC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47115D-4410-410B-8C3A-3B67E2A04559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Section 02/6</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Open 'Sheet 2'. In which cell is written ''baseball''? Write the answer in the highlighted cell D3.</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -206,35 +209,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -566,72 +571,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="J2" s="12" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="1"/>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -640,49 +648,52 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:H10"/>
+    <mergeCell ref="B11:H11"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:H10"/>
-    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
